--- a/biology/Médecine/Aortite/Aortite.xlsx
+++ b/biology/Médecine/Aortite/Aortite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une aortite est une inflammation de l'aorte.
 </t>
@@ -511,13 +523,15 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Des multiples causes sont possibles, dont : 
 trauma,
 infection virale,
 certains désordres immunitaires, dont maladie autoimmunes
-infection bactérienne, dont syphilis (pouvant causer l'aortite syphilitique[1]</t>
+infection bactérienne, dont syphilis (pouvant causer l'aortite syphilitique</t>
         </is>
       </c>
     </row>
@@ -545,7 +559,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils dépendent de la gravité de l'inflammation et de ses effets, mais le médecin cherche à traiter l'inflammation, ses complications, ainsi qu'à prévenir et suivre les ré-occurrences.
 </t>
@@ -576,9 +592,11 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sans soins adaptés, la maladie évolue en 3 phases[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sans soins adaptés, la maladie évolue en 3 phases :
 phase inflammatoire précoce ;
 inflammation vasculaire avec douleur secondaire et sensibilité à la palpation ;
 symptômes d'ischémie et  douleur associée à l'usage des membres (avec sensation de membres froids et moites).</t>
